--- a/diaries/diary-Yilin Wang.xlsx
+++ b/diaries/diary-Yilin Wang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlwan\Documents\Study\reverse_engineering\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E219A3-DFA2-491B-BD77-56F0B2677D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6B1C3D-647D-4CB0-A5EF-085DFA3EB441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -54,36 +54,18 @@
     <t>Participants</t>
   </si>
   <si>
-    <t>&lt;what day?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what time?&gt;</t>
-  </si>
-  <si>
     <t>Reflection</t>
   </si>
   <si>
-    <t>&lt;as applicable, with whom?&gt;</t>
-  </si>
-  <si>
     <t>Your Overall Mood</t>
   </si>
   <si>
     <t>Goal</t>
   </si>
   <si>
-    <t>&lt;what did you want to accomplish?&gt;</t>
-  </si>
-  <si>
     <t>Achievements</t>
   </si>
   <si>
-    <t>&lt;what did you actually accomplish?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what insight(s) did you gain?&gt;</t>
-  </si>
-  <si>
     <t>&lt;how did you feel during the activity?&gt;</t>
   </si>
   <si>
@@ -127,6 +109,18 @@
   </si>
   <si>
     <t>Awesome.</t>
+  </si>
+  <si>
+    <t>Tianyu Qi</t>
+  </si>
+  <si>
+    <t>Revise last week lecture.</t>
+  </si>
+  <si>
+    <t>UML is a great tool for relationships between classes.Beacon is based on familiarity.</t>
+  </si>
+  <si>
+    <t>Get a sense of how to read code efficiently.Installed the SimpleUMLce and build the graph by it.Use metrics.</t>
   </si>
 </sst>
 </file>
@@ -623,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G11"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -679,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -692,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -729,16 +723,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31" x14ac:dyDescent="0.35">
@@ -749,19 +743,19 @@
         <v>0.90277777777777779</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
@@ -772,47 +766,47 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>43853</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="G12" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>

--- a/diaries/diary-Yilin Wang.xlsx
+++ b/diaries/diary-Yilin Wang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlwan\Documents\Study\reverse_engineering\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6B1C3D-647D-4CB0-A5EF-085DFA3EB441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699AF40A-E3DE-436A-9B3D-BA8804DC3838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Achievements</t>
   </si>
   <si>
-    <t>&lt;how did you feel during the activity?&gt;</t>
-  </si>
-  <si>
-    <t>Etc.</t>
-  </si>
-  <si>
     <t>Yilin Wang</t>
   </si>
   <si>
@@ -121,6 +115,30 @@
   </si>
   <si>
     <t>Get a sense of how to read code efficiently.Installed the SimpleUMLce and build the graph by it.Use metrics.</t>
+  </si>
+  <si>
+    <t>Know more about Git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have more sense what Git is and What's the good manner to use Git </t>
+  </si>
+  <si>
+    <t>Keep master branch clean.Always update items in different branches.</t>
+  </si>
+  <si>
+    <t>Good.</t>
+  </si>
+  <si>
+    <t>Start this week's assignment</t>
+  </si>
+  <si>
+    <t>Determine two key features of our projects</t>
+  </si>
+  <si>
+    <t>UML is really helpful for understanding sourcce code and the logic behind the code.</t>
+  </si>
+  <si>
+    <t>Tired but great.</t>
   </si>
 </sst>
 </file>
@@ -259,7 +277,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -296,6 +314,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -615,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -660,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -673,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -686,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -743,19 +764,19 @@
         <v>0.90277777777777779</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
@@ -766,19 +787,19 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
@@ -789,40 +810,66 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="G12" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>43856</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>43858</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
@@ -843,19 +890,19 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
@@ -864,7 +911,7 @@
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
@@ -891,7 +938,7 @@
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
@@ -1822,6 +1869,15 @@
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-Yilin Wang.xlsx
+++ b/diaries/diary-Yilin Wang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlwan\Documents\Study\reverse_engineering\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699AF40A-E3DE-436A-9B3D-BA8804DC3838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3569E7BC-FDFD-47AD-8443-769FA4F245E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>Tired but great.</t>
+  </si>
+  <si>
+    <t>Lindsay</t>
+  </si>
+  <si>
+    <t>Get ideas about homeworks and learn from my collegues.</t>
+  </si>
+  <si>
+    <t>Always looks for important feature and find testcases</t>
+  </si>
+  <si>
+    <t>Focus on essence. UML notations. Try to understand the story behind the code.</t>
   </si>
 </sst>
 </file>
@@ -312,11 +324,11 @@
     <xf numFmtId="19" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -638,36 +650,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="34.6328125" customWidth="1"/>
+    <col min="1" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -676,7 +688,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -689,7 +701,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -702,7 +714,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -715,7 +727,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -724,7 +736,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -733,7 +745,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -756,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>43839</v>
       </c>
@@ -779,7 +791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>43846</v>
       </c>
@@ -802,7 +814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>43853</v>
       </c>
@@ -825,7 +837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>43856</v>
       </c>
@@ -848,11 +860,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>43858</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>0.63888888888888895</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -871,16 +883,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -889,7 +915,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -898,7 +924,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -907,7 +933,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -916,7 +942,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -925,7 +951,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -934,7 +960,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -943,7 +969,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -952,7 +978,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -961,7 +987,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -970,7 +996,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -979,7 +1005,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -988,7 +1014,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -997,7 +1023,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1006,7 +1032,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1015,7 +1041,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1024,7 +1050,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1033,7 +1059,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1042,7 +1068,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1051,7 +1077,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1060,7 +1086,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1069,7 +1095,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1078,7 +1104,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1087,7 +1113,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1096,7 +1122,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1105,7 +1131,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1114,7 +1140,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1123,7 +1149,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1132,7 +1158,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1141,7 +1167,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1150,7 +1176,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1159,7 +1185,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1168,7 +1194,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1177,7 +1203,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1186,7 +1212,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1195,7 +1221,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1204,7 +1230,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1213,7 +1239,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1222,7 +1248,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1231,7 +1257,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1240,7 +1266,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1249,7 +1275,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1258,7 +1284,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -1267,7 +1293,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1276,7 +1302,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -1285,7 +1311,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1294,7 +1320,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -1303,7 +1329,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -1312,7 +1338,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -1321,7 +1347,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -1330,7 +1356,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -1339,7 +1365,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -1348,7 +1374,7 @@
       <c r="F67" s="7"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -1357,7 +1383,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -1366,7 +1392,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -1375,7 +1401,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -1384,7 +1410,7 @@
       <c r="F71" s="7"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -1393,7 +1419,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -1402,7 +1428,7 @@
       <c r="F73" s="7"/>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -1411,7 +1437,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -1420,7 +1446,7 @@
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -1429,7 +1455,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -1438,7 +1464,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -1447,7 +1473,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="8"/>
     </row>
-    <row r="79" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -1456,7 +1482,7 @@
       <c r="F79" s="7"/>
       <c r="G79" s="8"/>
     </row>
-    <row r="80" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -1465,7 +1491,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="81" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -1474,7 +1500,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -1483,7 +1509,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="8"/>
     </row>
-    <row r="83" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -1492,7 +1518,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="84" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -1501,7 +1527,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="8"/>
     </row>
-    <row r="85" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -1510,7 +1536,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -1519,7 +1545,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="87" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -1528,7 +1554,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="88" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -1537,7 +1563,7 @@
       <c r="F88" s="7"/>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -1546,7 +1572,7 @@
       <c r="F89" s="7"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -1555,7 +1581,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -1564,7 +1590,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="8"/>
     </row>
-    <row r="92" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -1573,7 +1599,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="93" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -1582,7 +1608,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -1591,7 +1617,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -1600,7 +1626,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="96" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -1609,7 +1635,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="8"/>
     </row>
-    <row r="97" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -1618,7 +1644,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="8"/>
     </row>
-    <row r="98" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -1627,7 +1653,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="99" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -1636,7 +1662,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="8"/>
     </row>
-    <row r="100" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -1645,7 +1671,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="8"/>
     </row>
-    <row r="101" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -1654,7 +1680,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="102" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -1663,7 +1689,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="8"/>
     </row>
-    <row r="103" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -1672,7 +1698,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -1681,7 +1707,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -1690,7 +1716,7 @@
       <c r="F105" s="7"/>
       <c r="G105" s="8"/>
     </row>
-    <row r="106" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -1699,7 +1725,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="8"/>
     </row>
-    <row r="107" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -1708,7 +1734,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -1717,7 +1743,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="8"/>
     </row>
-    <row r="109" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -1726,7 +1752,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="8"/>
     </row>
-    <row r="110" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -1735,7 +1761,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="8"/>
     </row>
-    <row r="111" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -1744,7 +1770,7 @@
       <c r="F111" s="7"/>
       <c r="G111" s="8"/>
     </row>
-    <row r="112" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -1753,7 +1779,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="8"/>
     </row>
-    <row r="113" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -1762,7 +1788,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="8"/>
     </row>
-    <row r="114" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -1771,7 +1797,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="8"/>
     </row>
-    <row r="115" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -1780,7 +1806,7 @@
       <c r="F115" s="7"/>
       <c r="G115" s="8"/>
     </row>
-    <row r="116" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -1789,7 +1815,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="8"/>
     </row>
-    <row r="117" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -1798,7 +1824,7 @@
       <c r="F117" s="7"/>
       <c r="G117" s="8"/>
     </row>
-    <row r="118" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -1807,7 +1833,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="8"/>
     </row>
-    <row r="119" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -1816,7 +1842,7 @@
       <c r="F119" s="7"/>
       <c r="G119" s="8"/>
     </row>
-    <row r="120" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -1825,7 +1851,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="8"/>
     </row>
-    <row r="121" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -1834,7 +1860,7 @@
       <c r="F121" s="7"/>
       <c r="G121" s="8"/>
     </row>
-    <row r="122" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -1843,7 +1869,7 @@
       <c r="F122" s="7"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -1852,7 +1878,7 @@
       <c r="F123" s="7"/>
       <c r="G123" s="8"/>
     </row>
-    <row r="124" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -1861,7 +1887,7 @@
       <c r="F124" s="7"/>
       <c r="G124" s="8"/>
     </row>
-    <row r="125" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -1870,7 +1896,7 @@
       <c r="F125" s="7"/>
       <c r="G125" s="8"/>
     </row>
-    <row r="126" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>

--- a/diaries/diary-Yilin Wang.xlsx
+++ b/diaries/diary-Yilin Wang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlwan\Documents\Study\reverse_engineering\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3569E7BC-FDFD-47AD-8443-769FA4F245E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B175ECD3-BD20-424F-A569-14031348216A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -151,6 +151,42 @@
   </si>
   <si>
     <t>Focus on essence. UML notations. Try to understand the story behind the code.</t>
+  </si>
+  <si>
+    <t>Weihuan Fu</t>
+  </si>
+  <si>
+    <t>build the project and run</t>
+  </si>
+  <si>
+    <t>Read Feature 1</t>
+  </si>
+  <si>
+    <t>Read Feature 2</t>
+  </si>
+  <si>
+    <t>Build the project but too large to build.Reinstall my computer system and clear some memories. Setup envrionment variables and successfully built Spring-boot in 1 hour</t>
+  </si>
+  <si>
+    <t>We should never mess the environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decided the first essential feature, which is file watcher on the springboot and started diving into the source code. </t>
+  </si>
+  <si>
+    <t>Clear variable names really help a lot</t>
+  </si>
+  <si>
+    <t>Decided the second feature is the communication sequence between client and server.</t>
+  </si>
+  <si>
+    <t>Sequence graph is a brilliant idea.</t>
+  </si>
+  <si>
+    <t>Revise the key points of the last week lecture</t>
+  </si>
+  <si>
+    <t>Have more understanding about the notatio.</t>
   </si>
 </sst>
 </file>
@@ -289,7 +325,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -329,6 +365,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -650,16 +692,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="34.6640625" customWidth="1"/>
+    <col min="1" max="7" width="34.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -670,7 +712,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -679,7 +721,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -688,7 +730,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -701,7 +743,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -714,7 +756,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,7 +769,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -736,7 +778,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -745,7 +787,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -768,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>43839</v>
       </c>
@@ -791,7 +833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>43846</v>
       </c>
@@ -814,7 +856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>43853</v>
       </c>
@@ -837,7 +879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>43856</v>
       </c>
@@ -860,7 +902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>43858</v>
       </c>
@@ -883,7 +925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>43860</v>
       </c>
@@ -906,43 +948,99 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="93" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="62" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
+        <v>43865</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>43867</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -951,7 +1049,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -960,7 +1058,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -969,7 +1067,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -978,7 +1076,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -987,7 +1085,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -996,7 +1094,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1005,7 +1103,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1014,7 +1112,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1023,7 +1121,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1032,7 +1130,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1041,7 +1139,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1050,7 +1148,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1059,7 +1157,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1068,7 +1166,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1077,7 +1175,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1086,7 +1184,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1095,7 +1193,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1104,7 +1202,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1113,7 +1211,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1122,7 +1220,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1131,7 +1229,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1140,7 +1238,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1149,7 +1247,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1158,7 +1256,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1167,7 +1265,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1176,7 +1274,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1185,7 +1283,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1194,7 +1292,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1203,7 +1301,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1212,7 +1310,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1221,7 +1319,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1230,7 +1328,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1239,7 +1337,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1248,7 +1346,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1257,7 +1355,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1266,7 +1364,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1275,7 +1373,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1284,7 +1382,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -1293,7 +1391,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1302,7 +1400,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -1311,7 +1409,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1320,7 +1418,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -1329,7 +1427,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -1338,7 +1436,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -1347,7 +1445,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -1356,7 +1454,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -1365,7 +1463,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -1374,7 +1472,7 @@
       <c r="F67" s="7"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -1383,7 +1481,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -1392,7 +1490,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -1401,7 +1499,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -1410,7 +1508,7 @@
       <c r="F71" s="7"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -1419,7 +1517,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -1428,7 +1526,7 @@
       <c r="F73" s="7"/>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -1437,7 +1535,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -1446,7 +1544,7 @@
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -1455,7 +1553,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -1464,7 +1562,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -1473,7 +1571,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="8"/>
     </row>
-    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -1482,7 +1580,7 @@
       <c r="F79" s="7"/>
       <c r="G79" s="8"/>
     </row>
-    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -1491,7 +1589,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -1500,7 +1598,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -1509,7 +1607,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="8"/>
     </row>
-    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -1518,7 +1616,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -1527,7 +1625,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="8"/>
     </row>
-    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -1536,7 +1634,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -1545,7 +1643,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -1554,7 +1652,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -1563,7 +1661,7 @@
       <c r="F88" s="7"/>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -1572,7 +1670,7 @@
       <c r="F89" s="7"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -1581,7 +1679,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -1590,7 +1688,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="8"/>
     </row>
-    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -1599,7 +1697,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -1608,7 +1706,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -1617,7 +1715,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -1626,7 +1724,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -1635,7 +1733,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="8"/>
     </row>
-    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -1644,7 +1742,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="8"/>
     </row>
-    <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -1653,7 +1751,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -1662,7 +1760,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="8"/>
     </row>
-    <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -1671,7 +1769,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="8"/>
     </row>
-    <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -1680,7 +1778,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -1689,7 +1787,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="8"/>
     </row>
-    <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -1698,7 +1796,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -1707,7 +1805,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -1716,7 +1814,7 @@
       <c r="F105" s="7"/>
       <c r="G105" s="8"/>
     </row>
-    <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -1725,7 +1823,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="8"/>
     </row>
-    <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -1734,7 +1832,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -1743,7 +1841,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="8"/>
     </row>
-    <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -1752,7 +1850,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="8"/>
     </row>
-    <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -1761,7 +1859,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="8"/>
     </row>
-    <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -1770,7 +1868,7 @@
       <c r="F111" s="7"/>
       <c r="G111" s="8"/>
     </row>
-    <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -1779,7 +1877,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="8"/>
     </row>
-    <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -1788,7 +1886,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="8"/>
     </row>
-    <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -1797,7 +1895,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="8"/>
     </row>
-    <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -1806,7 +1904,7 @@
       <c r="F115" s="7"/>
       <c r="G115" s="8"/>
     </row>
-    <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -1815,7 +1913,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="8"/>
     </row>
-    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -1824,7 +1922,7 @@
       <c r="F117" s="7"/>
       <c r="G117" s="8"/>
     </row>
-    <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -1833,7 +1931,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="8"/>
     </row>
-    <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -1842,7 +1940,7 @@
       <c r="F119" s="7"/>
       <c r="G119" s="8"/>
     </row>
-    <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -1851,7 +1949,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="8"/>
     </row>
-    <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -1860,7 +1958,7 @@
       <c r="F121" s="7"/>
       <c r="G121" s="8"/>
     </row>
-    <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -1869,7 +1967,7 @@
       <c r="F122" s="7"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -1878,7 +1976,7 @@
       <c r="F123" s="7"/>
       <c r="G123" s="8"/>
     </row>
-    <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -1887,7 +1985,7 @@
       <c r="F124" s="7"/>
       <c r="G124" s="8"/>
     </row>
-    <row r="125" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -1896,7 +1994,7 @@
       <c r="F125" s="7"/>
       <c r="G125" s="8"/>
     </row>
-    <row r="126" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>

--- a/diaries/diary-Yilin Wang.xlsx
+++ b/diaries/diary-Yilin Wang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlwan\Documents\Study\reverse_engineering\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B175ECD3-BD20-424F-A569-14031348216A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47881934-29D0-459D-8AFD-E18678263603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -183,10 +183,175 @@
     <t>Sequence graph is a brilliant idea.</t>
   </si>
   <si>
-    <t>Revise the key points of the last week lecture</t>
-  </si>
-  <si>
-    <t>Have more understanding about the notatio.</t>
+    <t>10:30:00 PM - 11:30:00 PM</t>
+  </si>
+  <si>
+    <t>09:30:00 AM - 11:30:00 AM</t>
+  </si>
+  <si>
+    <t>08:30:00 PM - 09:30:00 PM</t>
+  </si>
+  <si>
+    <t>10:30:00 PM - 00:30:00 AM</t>
+  </si>
+  <si>
+    <t>08:30:00 PM - 11:30:00 PM</t>
+  </si>
+  <si>
+    <t>04:30:00 PM - 08:30:00 PM</t>
+  </si>
+  <si>
+    <t>11:30:00 AM - 03:30:00 PM</t>
+  </si>
+  <si>
+    <t>05:30:00 PM - 09:30:00 PM</t>
+  </si>
+  <si>
+    <t>01:30:00 PM - 04:30:00 PM</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Revise last week lecture.
+Get more ideas about reading code and understand what's mental model.</t>
+  </si>
+  <si>
+    <t>07:30:00 AM - 10:20:00 AM</t>
+  </si>
+  <si>
+    <t>Revise the key points of the last week lectur.
+Remembered four important frequently asked questions.
+Get touched with mental models and get hands on the "HelloWorld" project.</t>
+  </si>
+  <si>
+    <t>Have more understanding about the notatio.
+In the old times, I always give up reading source codes and move to search answers on Internet. But I think I need to follow the codes, try to walk along it not think about it.
+Sometimes hand and pen are more trustworthy than visualizer or debugger.</t>
+  </si>
+  <si>
+    <t>Awesome.No homework but midterm is coming.</t>
+  </si>
+  <si>
+    <t>12:30:00 PM - 02:00:00 AM</t>
+  </si>
+  <si>
+    <t>Summarize main concepts about first lecture and try to understand the wisdom behind it.</t>
+  </si>
+  <si>
+    <t>We have summarize all of the concepts provided in to slice and watch the video provided by professor.
+Finally have a better sense of why we should read codes in a systematicly way.</t>
+  </si>
+  <si>
+    <t>I didn't understand the instructions at first but as I'm reading spring-boot, I start to realize reading in a structural manner really helps.</t>
+  </si>
+  <si>
+    <t>Awesome, have more confidence about midterm.</t>
+  </si>
+  <si>
+    <t>Summarize main concepts about second lecture and try to understand the wisdom behind it.</t>
+  </si>
+  <si>
+    <t>The concepts about strategies about information foraging. 
+Top-down
+bottom - Up
+Opportunistic
+Systematic
+Follow the rules about reading codes.</t>
+  </si>
+  <si>
+    <t>It's so nice that we could get concrete sense about guides about reading code. And for midterm, it's great for having one, because otherwise, it would be very hard in final without it.</t>
+  </si>
+  <si>
+    <t>Confident about midterm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summarize concepts in chapter 3 and 4. </t>
+  </si>
+  <si>
+    <t>Revise the mental model definition and how could we use this model to acclerate our study in software industry.</t>
+  </si>
+  <si>
+    <t>Finally I have some knowledge about reading UML and its annotation. Aggration and association are quite similar and stuff on the Internet can't match with each other.</t>
+  </si>
+  <si>
+    <t>Aggregation, association, dependency is soooooo hard.</t>
+  </si>
+  <si>
+    <t>Revise my notes and get prepared with my friends.</t>
+  </si>
+  <si>
+    <t>Weihuan Fu, Xiaolue Peng</t>
+  </si>
+  <si>
+    <t>not sure until exams</t>
+  </si>
+  <si>
+    <t>It is lots to remember, but a good summary in the middle of semester. Little by little, it occurs to me that call graph is really a great approach and concepts are not only for exams, but also a guide for future</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>Rewind the midterm, make sure keep focus on the lecture after the midter,</t>
+  </si>
+  <si>
+    <t>Know three key expert practices
+Professor provides another upper view about a project, stakeholder, key developers, key functional, non-functional feature.</t>
+  </si>
+  <si>
+    <t>Conceipts are easy and important in the midterm, so notes cover most of them. But there's some ambiguity about "format of the board", some friends perceive that question wanna change from txt to pdf, but others think that change the format of board.</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Start over the last week assignment</t>
+  </si>
+  <si>
+    <t>Find more essential featues and meet kaj to get more help and feedback about last week's assignment.</t>
+  </si>
+  <si>
+    <t>Dive deep into actuator, get familiar with constructor pattern and finished last week's assignment.</t>
+  </si>
+  <si>
+    <t>Submit this week assignment and understand what is flux and mono.</t>
+  </si>
+  <si>
+    <t>To be honest, it's so hard to find important stakeholders. For example, lots of small companies or projects utilize spring-boot but large companies hide this information in their website, after all theirs are not open source.</t>
+  </si>
+  <si>
+    <t>Stakeholders normally mean who uses this code, and suppliers mean what our codes depend on.</t>
+  </si>
+  <si>
+    <t>Flux and mono are publishers, that kinds of like a transform cable, get de data and send them to the downstream.</t>
+  </si>
+  <si>
+    <t>In the project, we need to make clear about why this feature is essential, and nice to have doesn't mean essential. For our projects, we should compare spring-boot with spring and what makes spring-boot spring-boot, what is the real meat of spring-boot.</t>
+  </si>
+  <si>
+    <t>Revise last weeks assignment and tried to find essential features.</t>
+  </si>
+  <si>
+    <t>Spring-boot is difficult to find "essential" feature because spring-boot is like an addon to spring, so without any part of spring-boot, application would work as well, just to be more cumbersome to build. I guess I should get professional ideas from Kaj tommorrow.</t>
+  </si>
+  <si>
+    <t>Kaj's ideas really help. After comparing with Spring, it becomes clearer about how to choose feature and how to overcome the difficulty. We have decided to choose actuator and live reload as our features. Because they are brand new in spring-boot and accelerate software development for users.</t>
+  </si>
+  <si>
+    <t>Finished the trace for actuator and live reload.Finish the report. Meet with my teamates and compile a best version.</t>
+  </si>
+  <si>
+    <t>I have no idea of builder pattern before. So it is so great to understand it and it is such an elegant implementation. To learn from source is another main reason why we read source code right?
+And I think I have more understanding about spring-boot, although it's just a piece of ocean.</t>
+  </si>
+  <si>
+    <t>Worried</t>
+  </si>
+  <si>
+    <t>Reading code is a slow process.
+Codes are natural not to understand.
+Needs to worry about what feature to implement and make the pull request.</t>
   </si>
 </sst>
 </file>
@@ -309,12 +474,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -325,7 +505,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -342,9 +522,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -354,23 +531,50 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="19" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -692,42 +896,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="34.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="3" width="34.6328125" customWidth="1"/>
+    <col min="4" max="6" width="34.6328125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="34.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -738,1270 +945,1408 @@
         <v>11</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
+      <c r="A10" s="15">
         <v>43839</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="16">
         <v>0.90277777777777779</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
+      <c r="A11" s="15">
         <v>43846</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="16">
         <v>0.90972222222222221</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
+      <c r="A12" s="15">
         <v>43853</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="16">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
+      <c r="A13" s="15">
         <v>43856</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
+      <c r="A14" s="15">
         <v>43858</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="20">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
+      <c r="A15" s="15">
         <v>43860</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="20">
         <v>0.75</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="93" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
+      <c r="A16" s="15">
         <v>43861</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="20">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="62" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
+      <c r="A17" s="15">
         <v>43863</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="20">
         <v>0.84722222222222221</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
+      <c r="A18" s="21">
         <v>43865</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="20">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
+    <row r="19" spans="1:7" ht="155" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
         <v>43867</v>
       </c>
-      <c r="B19" s="12">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <v>43868</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="C20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
+        <v>43869</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="15">
+        <v>43871</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
+      <c r="C22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="93" x14ac:dyDescent="0.35">
+      <c r="A23" s="15">
+        <v>43873</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="124" x14ac:dyDescent="0.35">
+      <c r="A24" s="15">
+        <v>43874</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="15">
+        <v>43876</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="124" x14ac:dyDescent="0.35">
+      <c r="A26" s="15">
+        <v>43877</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="15">
+        <v>43879</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="15">
+        <v>43880</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="62" x14ac:dyDescent="0.35">
+      <c r="A29" s="15">
+        <v>43881</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="8"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="8"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="8"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="8"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="8"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="8"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="8"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="8"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="8"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="8"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="8"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="8"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="8"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="8"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="8"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="8"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="8"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="8"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="7"/>
     </row>
     <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="8"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="7"/>
     </row>
     <row r="68" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="8"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="8"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="8"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="7"/>
     </row>
     <row r="71" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="8"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="8"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="7"/>
     </row>
     <row r="73" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="8"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="8"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="7"/>
     </row>
     <row r="75" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="8"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="8"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="7"/>
     </row>
     <row r="77" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="8"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="8"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="7"/>
     </row>
     <row r="79" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="8"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="8"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="7"/>
     </row>
     <row r="81" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="8"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="7"/>
     </row>
     <row r="82" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="8"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="7"/>
     </row>
     <row r="83" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="8"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="8"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="7"/>
     </row>
     <row r="85" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="8"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="7"/>
     </row>
     <row r="86" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="8"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="7"/>
     </row>
     <row r="87" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="8"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="7"/>
     </row>
     <row r="88" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="8"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="7"/>
     </row>
     <row r="89" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="8"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="7"/>
     </row>
     <row r="90" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="8"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="7"/>
     </row>
     <row r="91" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="8"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="7"/>
     </row>
     <row r="92" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="8"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="7"/>
     </row>
     <row r="93" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="8"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="7"/>
     </row>
     <row r="94" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="8"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="7"/>
     </row>
     <row r="95" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="8"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="8"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="7"/>
     </row>
     <row r="97" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="8"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="7"/>
     </row>
     <row r="98" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="8"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="7"/>
     </row>
     <row r="99" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="8"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="7"/>
     </row>
     <row r="100" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="8"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="7"/>
     </row>
     <row r="101" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="8"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="8"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="7"/>
     </row>
     <row r="103" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="8"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="7"/>
     </row>
     <row r="104" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="8"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="7"/>
     </row>
     <row r="105" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="8"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="8"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="7"/>
     </row>
     <row r="107" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="8"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="7"/>
     </row>
     <row r="108" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="8"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="7"/>
     </row>
     <row r="109" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="8"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="7"/>
     </row>
     <row r="110" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="8"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="7"/>
     </row>
     <row r="111" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="8"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="7"/>
     </row>
     <row r="112" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="8"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="7"/>
     </row>
     <row r="113" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="8"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="8"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="7"/>
     </row>
     <row r="115" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="8"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="7"/>
     </row>
     <row r="116" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="8"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="7"/>
     </row>
     <row r="117" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="8"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="7"/>
     </row>
     <row r="118" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="8"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="7"/>
     </row>
     <row r="119" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="8"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="7"/>
     </row>
     <row r="120" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="8"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="7"/>
     </row>
     <row r="121" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="8"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="7"/>
     </row>
     <row r="122" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="8"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="7"/>
     </row>
     <row r="123" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="8"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="7"/>
     </row>
     <row r="124" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="8"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="7"/>
     </row>
     <row r="125" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="8"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="7"/>
     </row>
     <row r="126" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="8"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
